--- a/medicine/Pharmacie/Afatinib/Afatinib.xlsx
+++ b/medicine/Pharmacie/Afatinib/Afatinib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’afatinib est un inhibiteur de tyrosine kinase (TKI) utilisé comme médicament en monothérapie dans le traitement des  cancers bronchiques non à petites cellules (CBNPC). 
@@ -512,7 +524,9 @@
           <t>Commercialisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’afatinib est commercialisé sous les noms Gilotrif aux États-Unis et Giotrif en Europe (auparavant  Tomtovok et Tovok) et développé par Boehringer Ingelheim.
 </t>
@@ -543,14 +557,16 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L’afatinib inhibe de façon irréversible les récepteurs de la famille ErbB, famille des récepteurs de facteurs de croissance épidermique (ErbB), eux-mêmes impliqués dans les mécanismes de signalisation intracellulaire contrôlant la croissance, la survie, l’adhésion, la migration ainsi que la différenciation de la cellule[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L’afatinib inhibe de façon irréversible les récepteurs de la famille ErbB, famille des récepteurs de facteurs de croissance épidermique (ErbB), eux-mêmes impliqués dans les mécanismes de signalisation intracellulaire contrôlant la croissance, la survie, l’adhésion, la migration ainsi que la différenciation de la cellule,.
 La famille ErbB comprend 4 récepteurs tyrosine-kinase : 
 ErbB-1 (aussi appelé en anglais : epidermal growth factor receptor, EGFR ou HER1 ;
 ErbB-2 (aussi appelé HER2/neu) ;
 ErbB-3 ou HER3 ;
-ErbB-4 ou HER4[4].</t>
+ErbB-4 ou HER4.</t>
         </is>
       </c>
     </row>
@@ -578,9 +594,11 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traitement des patients adultes naïfs de TKI anti-EGFR (récepteur du facteur de croissance épidermique) atteints d’un cancer bronchique non à petites cellules (CBNPC), localement avancé ou métastatique, qui présente une (des) mutation(s) activatrice(s) de l’EGFR[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traitement des patients adultes naïfs de TKI anti-EGFR (récepteur du facteur de croissance épidermique) atteints d’un cancer bronchique non à petites cellules (CBNPC), localement avancé ou métastatique, qui présente une (des) mutation(s) activatrice(s) de l’EGFR.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Paronychie
 Diminution de l'appétit
